--- a/equipment.xlsx
+++ b/equipment.xlsx
@@ -47,7 +47,7 @@
     <t>forklift</t>
   </si>
   <si>
-    <t>disel</t>
+    <t>f102</t>
   </si>
   <si>
     <t>This is a test</t>
